--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehedi Goni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\fatal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="User - Personal View" guid="{FEE2FD9E-B8F3-4CA5-A1CD-CD092CF74193}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="Mehedi Goni - Personal View" guid="{BD19BD65-E78A-4828-809B-12056012BA20}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>RFHY</t>
   </si>
@@ -40,11 +41,14 @@
   <si>
     <t>SFD</t>
   </si>
+  <si>
+    <t>I SUCK BIG TIME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,28 +98,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5A1F6D48-44F6-410D-A785-3C63C429E7E5}" diskRevisions="1" revisionId="4" version="5" preserveHistory="1">
-  <header guid="{9098E07F-A5D8-41FC-AFA3-340FA562ACFE}" dateTime="2017-11-30T13:28:13" maxSheetId="2" userName="Mehedi Goni" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1C74023F-EE4E-4760-88CC-4E51C812701C}" dateTime="2017-11-30T13:59:32" maxSheetId="2" userName="Mehedi Goni" r:id="rId2" minRId="1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{93F87425-006F-4D3C-86B9-E65FFF607C1A}" dateTime="2017-11-30T13:59:45" maxSheetId="2" userName="Mehedi Goni" r:id="rId3" minRId="2" maxRId="3">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7D6578F8-DDAF-4BC8-9CA3-AB45C6008DC4}" dateTime="2017-11-30T14:00:33" maxSheetId="2" userName="Mehedi Goni" r:id="rId4">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5A1F6D48-44F6-410D-A785-3C63C429E7E5}" dateTime="2017-11-30T14:32:42" maxSheetId="2" userName="Mehedi Goni" r:id="rId5" minRId="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{224975EC-6FF2-4E8E-9347-1392A9EF596B}" diskRevisions="1" revisionId="5" version="6" preserveHistory="1">
+  <header guid="{224975EC-6FF2-4E8E-9347-1392A9EF596B}" dateTime="2017-12-03T18:06:47" maxSheetId="2" userName="User" r:id="rId6" minRId="5">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -123,57 +107,16 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <nc r="E6" t="inlineStr">
+  <rcc rId="5" sId="1">
+    <nc r="F3" t="inlineStr">
       <is>
-        <t>RFHY</t>
+        <t>I SUCK BIG TIME</t>
       </is>
     </nc>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="2" sId="1">
-    <nc r="B1" t="inlineStr">
-      <is>
-        <t>WR</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <nc r="I8" t="inlineStr">
-      <is>
-        <t>W</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{BD19BD65-E78A-4828-809B-12056012BA20}" action="delete"/>
-  <rcv guid="{BD19BD65-E78A-4828-809B-12056012BA20}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4" sId="1">
-    <nc r="F12" t="inlineStr">
-      <is>
-        <t>SFD</t>
-      </is>
-    </nc>
-  </rcc>
+  <rcv guid="{FEE2FD9E-B8F3-4CA5-A1CD-CD092CF74193}" action="add"/>
 </revisions>
 </file>
 
@@ -443,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +398,11 @@
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -474,6 +422,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{FEE2FD9E-B8F3-4CA5-A1CD-CD092CF74193}">
+      <selection activeCell="F3" sqref="F3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BD19BD65-E78A-4828-809B-12056012BA20}">
       <selection activeCell="M7" sqref="M7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
